--- a/po_analysis_by_asin/B0CV31TDXM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV31TDXM_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>45</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>18</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>32</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>63</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>48</v>

--- a/po_analysis_by_asin/B0CV31TDXM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV31TDXM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -557,7 +558,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -607,6 +608,299 @@
       </c>
       <c r="B7" t="n">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.419566741690932</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.5840799643522</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.309903518993581</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.43611569195231</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.859090643834097</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.73423712979431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.868468600236555</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.35548164461991</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.734377072440054</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.70219131223943</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.600795652613342</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.30188977234354</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-6.906127977149724</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.84123904605563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.075653850734456</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.80548533781803</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.990389323252505</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.89375212144204</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.964538157578103</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.80529690160506</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.418692694231725</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.05437150921625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-7.860028305163411</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.97143140884216</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-8.600963038904469</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26.27830310173102</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.189695893642609</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.11255917645608</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.770694608907633</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.33889892361304</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.469648025418577</v>
+      </c>
+      <c r="D17" t="n">
+        <v>27.82133001037589</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.190149180056251</v>
+      </c>
+      <c r="D18" t="n">
+        <v>26.1607217775905</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-9.249978024525259</v>
+      </c>
+      <c r="D19" t="n">
+        <v>26.525423935002</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CV31TDXM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV31TDXM_po_data.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,16 +640,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -658,12 +648,6 @@
       <c r="B2" t="n">
         <v>15</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.419566741690932</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.5840799643522</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -672,12 +656,6 @@
       <c r="B3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>-4.309903518993581</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.43611569195231</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -686,12 +664,6 @@
       <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>-2.859090643834097</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.73423712979431</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -700,12 +672,6 @@
       <c r="B5" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
-        <v>-3.868468600236555</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.35548164461991</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -714,12 +680,6 @@
       <c r="B6" t="n">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>-5.734377072440054</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.70219131223943</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -728,12 +688,6 @@
       <c r="B7" t="n">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>-5.600795652613342</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30.30188977234354</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -742,12 +696,6 @@
       <c r="B8" t="n">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
-        <v>-6.906127977149724</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29.84123904605563</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -756,12 +704,6 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>-8.075653850734456</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.80548533781803</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -770,12 +712,6 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>-6.990389323252505</v>
-      </c>
-      <c r="D10" t="n">
-        <v>26.89375212144204</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -784,12 +720,6 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
-        <v>-6.964538157578103</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26.80529690160506</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -798,12 +728,6 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.418692694231725</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.05437150921625</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -812,12 +736,6 @@
       <c r="B13" t="n">
         <v>9</v>
       </c>
-      <c r="C13" t="n">
-        <v>-7.860028305163411</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26.97143140884216</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -826,12 +744,6 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
-      <c r="C14" t="n">
-        <v>-8.600963038904469</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.27830310173102</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -840,12 +752,6 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
-      <c r="C15" t="n">
-        <v>-9.189695893642609</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.11255917645608</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -854,12 +760,6 @@
       <c r="B16" t="n">
         <v>9</v>
       </c>
-      <c r="C16" t="n">
-        <v>-9.770694608907633</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26.33889892361304</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -868,12 +768,6 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" t="n">
-        <v>-8.469648025418577</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27.82133001037589</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -882,12 +776,6 @@
       <c r="B18" t="n">
         <v>9</v>
       </c>
-      <c r="C18" t="n">
-        <v>-9.190149180056251</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26.1607217775905</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -895,12 +783,6 @@
       </c>
       <c r="B19" t="n">
         <v>8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-9.249978024525259</v>
-      </c>
-      <c r="D19" t="n">
-        <v>26.525423935002</v>
       </c>
     </row>
   </sheetData>
